--- a/data/pca/factorExposure/factorExposure_2015-12-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01676391822751772</v>
+        <v>0.01410967789782585</v>
       </c>
       <c r="C2">
-        <v>-0.034227268255505</v>
+        <v>-0.03347890686982526</v>
       </c>
       <c r="D2">
-        <v>-0.08951373786483183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1240091203932072</v>
+      </c>
+      <c r="E2">
+        <v>-0.06902903038654923</v>
+      </c>
+      <c r="F2">
+        <v>0.02331016976896748</v>
+      </c>
+      <c r="G2">
+        <v>-0.06990045036870216</v>
+      </c>
+      <c r="H2">
+        <v>-0.09770470630066387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01784015581562186</v>
+        <v>0.01037934676573382</v>
       </c>
       <c r="C3">
-        <v>-0.05381081006393808</v>
+        <v>-0.03785341648350543</v>
       </c>
       <c r="D3">
-        <v>-0.1225441419675238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07306526205859158</v>
+      </c>
+      <c r="E3">
+        <v>-0.0472002855666425</v>
+      </c>
+      <c r="F3">
+        <v>0.03929757325540414</v>
+      </c>
+      <c r="G3">
+        <v>-0.09576879029277717</v>
+      </c>
+      <c r="H3">
+        <v>-0.01310701503551872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05380121090351153</v>
+        <v>0.0532281790781217</v>
       </c>
       <c r="C4">
-        <v>-0.0402694575642146</v>
+        <v>-0.06288617409655078</v>
       </c>
       <c r="D4">
-        <v>-0.1277638611226297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1437404123651984</v>
+      </c>
+      <c r="E4">
+        <v>-0.05433000923988641</v>
+      </c>
+      <c r="F4">
+        <v>0.01521813443950283</v>
+      </c>
+      <c r="G4">
+        <v>0.03952891310735065</v>
+      </c>
+      <c r="H4">
+        <v>0.02054587594698041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04423316422183293</v>
+        <v>0.03993408370814647</v>
       </c>
       <c r="C6">
-        <v>-0.009306192316551127</v>
+        <v>-0.02791389238100175</v>
       </c>
       <c r="D6">
-        <v>-0.1343068876460339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.132247692695415</v>
+      </c>
+      <c r="E6">
+        <v>-0.03169466636415342</v>
+      </c>
+      <c r="F6">
+        <v>0.01342345754228998</v>
+      </c>
+      <c r="G6">
+        <v>-0.009939495319619056</v>
+      </c>
+      <c r="H6">
+        <v>-0.01590397439989373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02135197443380545</v>
+        <v>0.01401744320510705</v>
       </c>
       <c r="C7">
-        <v>-0.01809514460531858</v>
+        <v>-0.03070764470591389</v>
       </c>
       <c r="D7">
-        <v>-0.09709371637720998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09362052347626142</v>
+      </c>
+      <c r="E7">
+        <v>-0.03247255645557964</v>
+      </c>
+      <c r="F7">
+        <v>0.01755891607227265</v>
+      </c>
+      <c r="G7">
+        <v>0.002454838790977267</v>
+      </c>
+      <c r="H7">
+        <v>-0.1139496741824326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009657972779595212</v>
+        <v>0.006117799731953906</v>
       </c>
       <c r="C8">
-        <v>-0.03010775273752412</v>
+        <v>-0.03730998533981763</v>
       </c>
       <c r="D8">
-        <v>-0.0540457942544414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07070742330343392</v>
+      </c>
+      <c r="E8">
+        <v>-0.03600679933074198</v>
+      </c>
+      <c r="F8">
+        <v>0.03950752057495154</v>
+      </c>
+      <c r="G8">
+        <v>-0.01295739328004639</v>
+      </c>
+      <c r="H8">
+        <v>-0.04486019681935252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04280203873327318</v>
+        <v>0.0409604370955251</v>
       </c>
       <c r="C9">
-        <v>-0.03977488554606552</v>
+        <v>-0.05942857250930751</v>
       </c>
       <c r="D9">
-        <v>-0.1118385069737715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1207365925454254</v>
+      </c>
+      <c r="E9">
+        <v>-0.0372171134408649</v>
+      </c>
+      <c r="F9">
+        <v>-0.0001932614431362619</v>
+      </c>
+      <c r="G9">
+        <v>0.02840577344534665</v>
+      </c>
+      <c r="H9">
+        <v>-0.007921174601077748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09387811741863676</v>
+        <v>0.1389889706190182</v>
       </c>
       <c r="C10">
-        <v>0.1937370940123297</v>
+        <v>0.1860562682663653</v>
       </c>
       <c r="D10">
-        <v>-0.0006425840780826416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0008029126701356554</v>
+      </c>
+      <c r="E10">
+        <v>-0.04376930460734048</v>
+      </c>
+      <c r="F10">
+        <v>0.02018584392715107</v>
+      </c>
+      <c r="G10">
+        <v>0.03560708060405828</v>
+      </c>
+      <c r="H10">
+        <v>0.002164286295045371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03432646748008079</v>
+        <v>0.0277315882309819</v>
       </c>
       <c r="C11">
-        <v>-0.0395362567061961</v>
+        <v>-0.04457986908474865</v>
       </c>
       <c r="D11">
-        <v>-0.05819664214054779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05785112251423118</v>
+      </c>
+      <c r="E11">
+        <v>0.003640827346706372</v>
+      </c>
+      <c r="F11">
+        <v>0.0009225152633620316</v>
+      </c>
+      <c r="G11">
+        <v>-0.0009313993033178823</v>
+      </c>
+      <c r="H11">
+        <v>-0.0484439328635889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03917700808485591</v>
+        <v>0.03311983475855744</v>
       </c>
       <c r="C12">
-        <v>-0.03965692386424259</v>
+        <v>-0.04574963748199339</v>
       </c>
       <c r="D12">
-        <v>-0.06115515183392768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05715876933345387</v>
+      </c>
+      <c r="E12">
+        <v>-0.003667004415103961</v>
+      </c>
+      <c r="F12">
+        <v>-0.007066512755366512</v>
+      </c>
+      <c r="G12">
+        <v>-0.0002346275227416041</v>
+      </c>
+      <c r="H12">
+        <v>-0.06173386192015912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01831355215687696</v>
+        <v>0.01757148743261379</v>
       </c>
       <c r="C13">
-        <v>-0.03019281479677447</v>
+        <v>-0.03883779229609396</v>
       </c>
       <c r="D13">
-        <v>-0.1255327343587752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1439122992825929</v>
+      </c>
+      <c r="E13">
+        <v>-0.0492566075409908</v>
+      </c>
+      <c r="F13">
+        <v>0.03357136136395573</v>
+      </c>
+      <c r="G13">
+        <v>-0.008688676313669971</v>
+      </c>
+      <c r="H13">
+        <v>-0.1035108107033402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0117929302213898</v>
+        <v>0.008382811836398626</v>
       </c>
       <c r="C14">
-        <v>-0.01844655938515315</v>
+        <v>-0.024500283639292</v>
       </c>
       <c r="D14">
-        <v>-0.07839799854757219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08463681921377154</v>
+      </c>
+      <c r="E14">
+        <v>-0.0362593760604497</v>
+      </c>
+      <c r="F14">
+        <v>-0.01052157010243254</v>
+      </c>
+      <c r="G14">
+        <v>-0.01201474376957102</v>
+      </c>
+      <c r="H14">
+        <v>-0.1063232725658218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.001795782756407534</v>
+        <v>0.001213213514786086</v>
       </c>
       <c r="C15">
-        <v>-0.0009740431832185154</v>
+        <v>-0.009973133055646965</v>
       </c>
       <c r="D15">
-        <v>-0.002066637043157909</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03111383660944942</v>
+      </c>
+      <c r="E15">
+        <v>-0.006471078585687391</v>
+      </c>
+      <c r="F15">
+        <v>-0.001606181379667709</v>
+      </c>
+      <c r="G15">
+        <v>-0.01031250962438573</v>
+      </c>
+      <c r="H15">
+        <v>-0.009687915814246644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03504902299153868</v>
+        <v>0.02868720559641325</v>
       </c>
       <c r="C16">
-        <v>-0.04174122308019185</v>
+        <v>-0.04455804304983207</v>
       </c>
       <c r="D16">
-        <v>-0.06873703167467478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06142983700371911</v>
+      </c>
+      <c r="E16">
+        <v>-0.009470539991095987</v>
+      </c>
+      <c r="F16">
+        <v>-0.006663112596566494</v>
+      </c>
+      <c r="G16">
+        <v>-0.001721335186382078</v>
+      </c>
+      <c r="H16">
+        <v>-0.06021876260630984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.009488678535824259</v>
+        <v>0.006106255804603261</v>
       </c>
       <c r="C19">
-        <v>-0.02540715570835283</v>
+        <v>-0.02060107711910158</v>
       </c>
       <c r="D19">
-        <v>-0.1690769375349649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1236419155514447</v>
+      </c>
+      <c r="E19">
+        <v>-0.06543489879388398</v>
+      </c>
+      <c r="F19">
+        <v>-0.008791894113041312</v>
+      </c>
+      <c r="G19">
+        <v>-0.01904323566417298</v>
+      </c>
+      <c r="H19">
+        <v>-0.06728451981502637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01994429454658418</v>
+        <v>0.01574193383453378</v>
       </c>
       <c r="C20">
-        <v>-0.02400243491739898</v>
+        <v>-0.03279789100922487</v>
       </c>
       <c r="D20">
-        <v>-0.08865267827077329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09836368984678527</v>
+      </c>
+      <c r="E20">
+        <v>-0.05180139552778973</v>
+      </c>
+      <c r="F20">
+        <v>-0.004503099738989096</v>
+      </c>
+      <c r="G20">
+        <v>-0.0006576153262005898</v>
+      </c>
+      <c r="H20">
+        <v>-0.0591135914372382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01525672686410414</v>
+        <v>0.01436039987671328</v>
       </c>
       <c r="C21">
-        <v>-0.0311028018877086</v>
+        <v>-0.03728959436061653</v>
       </c>
       <c r="D21">
-        <v>-0.1296695435043462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1394699491708006</v>
+      </c>
+      <c r="E21">
+        <v>-0.09119481735177855</v>
+      </c>
+      <c r="F21">
+        <v>-0.0009263502293376774</v>
+      </c>
+      <c r="G21">
+        <v>0.0256197326937415</v>
+      </c>
+      <c r="H21">
+        <v>-0.125390371061975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00839353013090182</v>
+        <v>0.005564285516409018</v>
       </c>
       <c r="C22">
-        <v>-0.02939258207869822</v>
+        <v>-0.04132629370576509</v>
       </c>
       <c r="D22">
-        <v>-0.08594618664384764</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1435981072867225</v>
+      </c>
+      <c r="E22">
+        <v>-0.03105700817190998</v>
+      </c>
+      <c r="F22">
+        <v>0.08429660509880356</v>
+      </c>
+      <c r="G22">
+        <v>-0.07042883667186188</v>
+      </c>
+      <c r="H22">
+        <v>0.05803379179365882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.008472504734009692</v>
+        <v>0.005668757611480644</v>
       </c>
       <c r="C23">
-        <v>-0.02927162612160573</v>
+        <v>-0.04179855928307265</v>
       </c>
       <c r="D23">
-        <v>-0.08522846701296109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1430491356495356</v>
+      </c>
+      <c r="E23">
+        <v>-0.03133568083874996</v>
+      </c>
+      <c r="F23">
+        <v>0.08425935562741417</v>
+      </c>
+      <c r="G23">
+        <v>-0.06948671286061973</v>
+      </c>
+      <c r="H23">
+        <v>0.05819434188659053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03541876177143535</v>
+        <v>0.03000148422902081</v>
       </c>
       <c r="C24">
-        <v>-0.04814626707951154</v>
+        <v>-0.05636103399033125</v>
       </c>
       <c r="D24">
-        <v>-0.06670229363699068</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06529922213020134</v>
+      </c>
+      <c r="E24">
+        <v>-0.01373333195257078</v>
+      </c>
+      <c r="F24">
+        <v>-0.005221393488298024</v>
+      </c>
+      <c r="G24">
+        <v>0.006811758522055463</v>
+      </c>
+      <c r="H24">
+        <v>-0.07162443918637179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04056587613142851</v>
+        <v>0.03416551920934272</v>
       </c>
       <c r="C25">
-        <v>-0.04833318390133843</v>
+        <v>-0.05352385065515874</v>
       </c>
       <c r="D25">
-        <v>-0.06572136934873789</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06153625665142391</v>
+      </c>
+      <c r="E25">
+        <v>-0.0134592550989558</v>
+      </c>
+      <c r="F25">
+        <v>0.0001048494837774282</v>
+      </c>
+      <c r="G25">
+        <v>0.007088171372907369</v>
+      </c>
+      <c r="H25">
+        <v>-0.05602542312893288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02013954218380613</v>
+        <v>0.01752785946410842</v>
       </c>
       <c r="C26">
-        <v>-0.009026437264184525</v>
+        <v>-0.01799064257264789</v>
       </c>
       <c r="D26">
-        <v>-0.05233938228594337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06135843166823189</v>
+      </c>
+      <c r="E26">
+        <v>-0.02618701332457219</v>
+      </c>
+      <c r="F26">
+        <v>0.002289721780672224</v>
+      </c>
+      <c r="G26">
+        <v>-0.006441643211220095</v>
+      </c>
+      <c r="H26">
+        <v>-0.06505061863217154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1428112426308699</v>
+        <v>0.1988153306385413</v>
       </c>
       <c r="C28">
-        <v>0.2738427523812383</v>
+        <v>0.2502278414207172</v>
       </c>
       <c r="D28">
-        <v>0.03087911944773685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01417044675722842</v>
+      </c>
+      <c r="E28">
+        <v>-0.06967691011595253</v>
+      </c>
+      <c r="F28">
+        <v>0.002409867965874259</v>
+      </c>
+      <c r="G28">
+        <v>0.06618407384532789</v>
+      </c>
+      <c r="H28">
+        <v>-0.012855171422829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007223726094860448</v>
+        <v>0.00624802305787767</v>
       </c>
       <c r="C29">
-        <v>-0.01800106025947718</v>
+        <v>-0.02348274841976533</v>
       </c>
       <c r="D29">
-        <v>-0.06343532357493552</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0792522803068649</v>
+      </c>
+      <c r="E29">
+        <v>-0.03323625196736694</v>
+      </c>
+      <c r="F29">
+        <v>0.004859006769756681</v>
+      </c>
+      <c r="G29">
+        <v>0.006011526449547091</v>
+      </c>
+      <c r="H29">
+        <v>-0.1106234365561516</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0389798329213757</v>
+        <v>0.04058060057315897</v>
       </c>
       <c r="C30">
-        <v>-0.03937336265784751</v>
+        <v>-0.06035454036738925</v>
       </c>
       <c r="D30">
-        <v>-0.1654964168524355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1771904496052573</v>
+      </c>
+      <c r="E30">
+        <v>-0.0200188851025986</v>
+      </c>
+      <c r="F30">
+        <v>0.006337533826929655</v>
+      </c>
+      <c r="G30">
+        <v>-0.02370023525490393</v>
+      </c>
+      <c r="H30">
+        <v>-0.004841583657036635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.07180423972175259</v>
+        <v>0.0557034111480291</v>
       </c>
       <c r="C31">
-        <v>-0.05261507619923203</v>
+        <v>-0.07209465058779078</v>
       </c>
       <c r="D31">
-        <v>-0.0681306343965196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05638859615697102</v>
+      </c>
+      <c r="E31">
+        <v>-0.03216711201300022</v>
+      </c>
+      <c r="F31">
+        <v>0.03342722103872851</v>
+      </c>
+      <c r="G31">
+        <v>0.02030862895074628</v>
+      </c>
+      <c r="H31">
+        <v>-0.04651956102443192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.007719036193242162</v>
+        <v>0.01186487915564787</v>
       </c>
       <c r="C32">
-        <v>-0.01481995719783653</v>
+        <v>-0.01845605706508519</v>
       </c>
       <c r="D32">
-        <v>-0.06252102477661149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09929451522865804</v>
+      </c>
+      <c r="E32">
+        <v>-0.09185623530110747</v>
+      </c>
+      <c r="F32">
+        <v>0.01463495627870929</v>
+      </c>
+      <c r="G32">
+        <v>0.02398935820927203</v>
+      </c>
+      <c r="H32">
+        <v>-0.09525242882708333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02562763861929722</v>
+        <v>0.02255563661821722</v>
       </c>
       <c r="C33">
-        <v>-0.02578453586006025</v>
+        <v>-0.04279379955728953</v>
       </c>
       <c r="D33">
-        <v>-0.1328638371377105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1307029793912381</v>
+      </c>
+      <c r="E33">
+        <v>-0.04412117879136831</v>
+      </c>
+      <c r="F33">
+        <v>0.01563035109672423</v>
+      </c>
+      <c r="G33">
+        <v>-0.002490240756699907</v>
+      </c>
+      <c r="H33">
+        <v>-0.0684190001011088</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0354878465225824</v>
+        <v>0.02662890984334654</v>
       </c>
       <c r="C34">
-        <v>-0.06222266276129678</v>
+        <v>-0.06097453711946583</v>
       </c>
       <c r="D34">
-        <v>-0.07023272009810373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05537324750674937</v>
+      </c>
+      <c r="E34">
+        <v>0.003662158243815414</v>
+      </c>
+      <c r="F34">
+        <v>-0.01107199193154355</v>
+      </c>
+      <c r="G34">
+        <v>-0.001720051233067737</v>
+      </c>
+      <c r="H34">
+        <v>-0.07713051761839251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005832807290149482</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.000748290853969044</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.004454293600412502</v>
+      </c>
+      <c r="E35">
+        <v>-0.0003210790143043098</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001022524367628897</v>
+      </c>
+      <c r="G35">
+        <v>-0.002191899614365053</v>
+      </c>
+      <c r="H35">
+        <v>-0.002201277081536317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02053428386333956</v>
+        <v>0.01827042889362603</v>
       </c>
       <c r="C36">
-        <v>-0.002731973753450211</v>
+        <v>-0.01444777148064019</v>
       </c>
       <c r="D36">
-        <v>-0.07348226000176532</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07697379209710582</v>
+      </c>
+      <c r="E36">
+        <v>-0.03525932752741721</v>
+      </c>
+      <c r="F36">
+        <v>-0.003042927014098657</v>
+      </c>
+      <c r="G36">
+        <v>0.009741573446480847</v>
+      </c>
+      <c r="H36">
+        <v>-0.0588956448241278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02363395618321563</v>
+        <v>0.01930421193031799</v>
       </c>
       <c r="C38">
-        <v>-0.01588167872609276</v>
+        <v>-0.02048521601879998</v>
       </c>
       <c r="D38">
-        <v>-0.05037524789587209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0564224337327425</v>
+      </c>
+      <c r="E38">
+        <v>-0.036284465330329</v>
+      </c>
+      <c r="F38">
+        <v>-0.00512971082083541</v>
+      </c>
+      <c r="G38">
+        <v>-0.0378089614177554</v>
+      </c>
+      <c r="H38">
+        <v>-0.03799618591718121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04030751535776648</v>
+        <v>0.03518914282560754</v>
       </c>
       <c r="C39">
-        <v>-0.05152466090201754</v>
+        <v>-0.06470456787224463</v>
       </c>
       <c r="D39">
-        <v>-0.08999620526225748</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1039578798056603</v>
+      </c>
+      <c r="E39">
+        <v>-0.006854894462584097</v>
+      </c>
+      <c r="F39">
+        <v>-0.02512330061261768</v>
+      </c>
+      <c r="G39">
+        <v>-0.004413796564667328</v>
+      </c>
+      <c r="H39">
+        <v>-0.08758135111008691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01950689535940812</v>
+        <v>0.01335248114542281</v>
       </c>
       <c r="C40">
-        <v>-0.04723109148699352</v>
+        <v>-0.03887925258909583</v>
       </c>
       <c r="D40">
-        <v>-0.07737517062231933</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08428283840423058</v>
+      </c>
+      <c r="E40">
+        <v>-0.06417665023517978</v>
+      </c>
+      <c r="F40">
+        <v>0.06398175881861196</v>
+      </c>
+      <c r="G40">
+        <v>-0.06256259103423693</v>
+      </c>
+      <c r="H40">
+        <v>-0.162577049174214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02543566858017626</v>
+        <v>0.02285533182506683</v>
       </c>
       <c r="C41">
-        <v>0.006023231702576616</v>
+        <v>-0.00876179775462484</v>
       </c>
       <c r="D41">
-        <v>-0.06688006698270432</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05415338691222259</v>
+      </c>
+      <c r="E41">
+        <v>-0.05261910186292942</v>
+      </c>
+      <c r="F41">
+        <v>0.002375799585646331</v>
+      </c>
+      <c r="G41">
+        <v>-0.01224756633860821</v>
+      </c>
+      <c r="H41">
+        <v>-0.04858858366304082</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03095614630235505</v>
+        <v>0.02304987374514557</v>
       </c>
       <c r="C43">
-        <v>-0.004309807663688739</v>
+        <v>-0.01783863465189456</v>
       </c>
       <c r="D43">
-        <v>-0.1062105242821466</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08520798700840275</v>
+      </c>
+      <c r="E43">
+        <v>-0.03623447042777203</v>
+      </c>
+      <c r="F43">
+        <v>0.004911991517918699</v>
+      </c>
+      <c r="G43">
+        <v>-0.01260777103048104</v>
+      </c>
+      <c r="H43">
+        <v>-0.072590593412628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01225521823165507</v>
+        <v>0.01681115184569642</v>
       </c>
       <c r="C44">
-        <v>-0.04202905647519192</v>
+        <v>-0.04359117694237</v>
       </c>
       <c r="D44">
-        <v>-0.07917369188813858</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09790470627475575</v>
+      </c>
+      <c r="E44">
+        <v>-0.07014462369203261</v>
+      </c>
+      <c r="F44">
+        <v>0.006358952239482274</v>
+      </c>
+      <c r="G44">
+        <v>-0.003718083217577293</v>
+      </c>
+      <c r="H44">
+        <v>-0.07352745673299936</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02058978525337029</v>
+        <v>0.01633959632993333</v>
       </c>
       <c r="C46">
-        <v>-0.0182069276630193</v>
+        <v>-0.02820206043940032</v>
       </c>
       <c r="D46">
-        <v>-0.07595642252587979</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08788895959488756</v>
+      </c>
+      <c r="E46">
+        <v>-0.03989443983637547</v>
+      </c>
+      <c r="F46">
+        <v>-0.01648852260525854</v>
+      </c>
+      <c r="G46">
+        <v>0.01418552565010305</v>
+      </c>
+      <c r="H46">
+        <v>-0.114285793982455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09576392775708506</v>
+        <v>0.08261525188994237</v>
       </c>
       <c r="C47">
-        <v>-0.06591507771505004</v>
+        <v>-0.08908148444205324</v>
       </c>
       <c r="D47">
-        <v>-0.0448918474164878</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03436815625732163</v>
+      </c>
+      <c r="E47">
+        <v>-0.03667392931360042</v>
+      </c>
+      <c r="F47">
+        <v>0.02165573980679754</v>
+      </c>
+      <c r="G47">
+        <v>0.04290552196464826</v>
+      </c>
+      <c r="H47">
+        <v>-0.02244003960837865</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01639285924073344</v>
+        <v>0.0161439827519394</v>
       </c>
       <c r="C48">
-        <v>-0.01475217063494287</v>
+        <v>-0.01967391314185937</v>
       </c>
       <c r="D48">
-        <v>-0.06724369554603662</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07231675582870135</v>
+      </c>
+      <c r="E48">
+        <v>-0.04993303704692285</v>
+      </c>
+      <c r="F48">
+        <v>-0.004411657124647291</v>
+      </c>
+      <c r="G48">
+        <v>0.007009713836482221</v>
+      </c>
+      <c r="H48">
+        <v>-0.06328438035372724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0712363310273231</v>
+        <v>0.05403043892076057</v>
       </c>
       <c r="C50">
-        <v>-0.0598857967218751</v>
+        <v>-0.06643281040603606</v>
       </c>
       <c r="D50">
-        <v>-0.06014100930935935</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05491562850983943</v>
+      </c>
+      <c r="E50">
+        <v>-0.04419794837732687</v>
+      </c>
+      <c r="F50">
+        <v>0.04095442437080442</v>
+      </c>
+      <c r="G50">
+        <v>-0.01170607965192232</v>
+      </c>
+      <c r="H50">
+        <v>-0.04779748051218025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009006449159411118</v>
+        <v>0.008426801983499002</v>
       </c>
       <c r="C51">
-        <v>-0.01850746768877751</v>
+        <v>-0.02025506373987171</v>
       </c>
       <c r="D51">
-        <v>-0.0802795915619522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08633456207323272</v>
+      </c>
+      <c r="E51">
+        <v>-0.01248158044806568</v>
+      </c>
+      <c r="F51">
+        <v>-0.00159658537601481</v>
+      </c>
+      <c r="G51">
+        <v>-0.01741556062371008</v>
+      </c>
+      <c r="H51">
+        <v>-0.07200311505590204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08590683326101801</v>
+        <v>0.08552311561360926</v>
       </c>
       <c r="C53">
-        <v>-0.09330877600594351</v>
+        <v>-0.1027427658105111</v>
       </c>
       <c r="D53">
-        <v>-0.01971597121489204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01106665870498036</v>
+      </c>
+      <c r="E53">
+        <v>-0.1056850663768285</v>
+      </c>
+      <c r="F53">
+        <v>0.0443633622477593</v>
+      </c>
+      <c r="G53">
+        <v>0.08834752178935484</v>
+      </c>
+      <c r="H53">
+        <v>-0.009005073221798249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03161004342842694</v>
+        <v>0.02545197677067755</v>
       </c>
       <c r="C54">
-        <v>-0.034327986520769</v>
+        <v>-0.03657280712968639</v>
       </c>
       <c r="D54">
-        <v>-0.08726950482141471</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08560683727566189</v>
+      </c>
+      <c r="E54">
+        <v>-0.04286052352736703</v>
+      </c>
+      <c r="F54">
+        <v>-0.01344248374544835</v>
+      </c>
+      <c r="G54">
+        <v>-0.02044172405609056</v>
+      </c>
+      <c r="H54">
+        <v>-0.1150878005169157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09144974660075243</v>
+        <v>0.08461352240996937</v>
       </c>
       <c r="C55">
-        <v>-0.06547290694057105</v>
+        <v>-0.0811078806137002</v>
       </c>
       <c r="D55">
-        <v>0.005125960493134484</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.007994038522673261</v>
+      </c>
+      <c r="E55">
+        <v>-0.0609865374413997</v>
+      </c>
+      <c r="F55">
+        <v>0.04121287060651527</v>
+      </c>
+      <c r="G55">
+        <v>0.04387443712602392</v>
+      </c>
+      <c r="H55">
+        <v>0.004201786263718075</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1387488234907923</v>
+        <v>0.1280955600436039</v>
       </c>
       <c r="C56">
-        <v>-0.09808958249481257</v>
+        <v>-0.1264033028156868</v>
       </c>
       <c r="D56">
-        <v>-0.00601920707952964</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008865922754766317</v>
+      </c>
+      <c r="E56">
+        <v>-0.06298924258330789</v>
+      </c>
+      <c r="F56">
+        <v>0.03220880725656726</v>
+      </c>
+      <c r="G56">
+        <v>0.04760078639245293</v>
+      </c>
+      <c r="H56">
+        <v>0.003291959587871572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.02176123785841855</v>
+        <v>0.02839018340179043</v>
       </c>
       <c r="C58">
-        <v>0.02477437416201825</v>
+        <v>-0.01694266279041814</v>
       </c>
       <c r="D58">
-        <v>-0.3616394773734442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3852903598890342</v>
+      </c>
+      <c r="E58">
+        <v>-0.2003348433103597</v>
+      </c>
+      <c r="F58">
+        <v>0.1439678190348377</v>
+      </c>
+      <c r="G58">
+        <v>-0.2615773623659253</v>
+      </c>
+      <c r="H58">
+        <v>0.4202111700854037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1383049806772496</v>
+        <v>0.1775135845949667</v>
       </c>
       <c r="C59">
-        <v>0.1922852702564841</v>
+        <v>0.1682493253900754</v>
       </c>
       <c r="D59">
-        <v>-0.02942890005598973</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05219584844574514</v>
+      </c>
+      <c r="E59">
+        <v>-0.01842768673146167</v>
+      </c>
+      <c r="F59">
+        <v>-0.04286880326715468</v>
+      </c>
+      <c r="G59">
+        <v>5.576638615983269e-05</v>
+      </c>
+      <c r="H59">
+        <v>0.02518538713803381</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2476133576702316</v>
+        <v>0.2259537368425167</v>
       </c>
       <c r="C60">
-        <v>-0.06111718492130219</v>
+        <v>-0.1046015478875104</v>
       </c>
       <c r="D60">
-        <v>-0.1676362662723637</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1144747194968057</v>
+      </c>
+      <c r="E60">
+        <v>0.3649125019348772</v>
+      </c>
+      <c r="F60">
+        <v>0.02459234137105456</v>
+      </c>
+      <c r="G60">
+        <v>0.03566927887318708</v>
+      </c>
+      <c r="H60">
+        <v>0.1090919074125324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04695474512873481</v>
+        <v>0.0396485969112283</v>
       </c>
       <c r="C61">
-        <v>-0.05480787492948222</v>
+        <v>-0.06184290537687794</v>
       </c>
       <c r="D61">
-        <v>-0.09639828066434949</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09186119506355821</v>
+      </c>
+      <c r="E61">
+        <v>-0.00355138760322883</v>
+      </c>
+      <c r="F61">
+        <v>-0.01678477288593613</v>
+      </c>
+      <c r="G61">
+        <v>0.008095458370861969</v>
+      </c>
+      <c r="H61">
+        <v>-0.07985768918410741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01658074295550729</v>
+        <v>0.01333102735552508</v>
       </c>
       <c r="C63">
-        <v>-0.02303926629782376</v>
+        <v>-0.03359164485643423</v>
       </c>
       <c r="D63">
-        <v>-0.06238938283371488</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06747094241383297</v>
+      </c>
+      <c r="E63">
+        <v>-0.03073812135880846</v>
+      </c>
+      <c r="F63">
+        <v>0.01756716980312616</v>
+      </c>
+      <c r="G63">
+        <v>-0.0028543806813177</v>
+      </c>
+      <c r="H63">
+        <v>-0.0516692226973919</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05992007689750832</v>
+        <v>0.05303242455156619</v>
       </c>
       <c r="C64">
-        <v>-0.06425114954910001</v>
+        <v>-0.08181626835751299</v>
       </c>
       <c r="D64">
-        <v>-0.05707121640044401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05349621534215421</v>
+      </c>
+      <c r="E64">
+        <v>-0.02687348004738658</v>
+      </c>
+      <c r="F64">
+        <v>-0.01509745377545517</v>
+      </c>
+      <c r="G64">
+        <v>0.054164886304299</v>
+      </c>
+      <c r="H64">
+        <v>-0.06089953381203569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05138642203306273</v>
+        <v>0.0473921640462869</v>
       </c>
       <c r="C65">
-        <v>-0.001804174694605485</v>
+        <v>-0.0245505824714694</v>
       </c>
       <c r="D65">
-        <v>-0.1086603267095275</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1144556956248577</v>
+      </c>
+      <c r="E65">
+        <v>-0.002841601260645376</v>
+      </c>
+      <c r="F65">
+        <v>0.01414449868326478</v>
+      </c>
+      <c r="G65">
+        <v>-0.03064735128540897</v>
+      </c>
+      <c r="H65">
+        <v>0.0255464483738634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04592063207784314</v>
+        <v>0.039894926331718</v>
       </c>
       <c r="C66">
-        <v>-0.05708726455139565</v>
+        <v>-0.07506458519986889</v>
       </c>
       <c r="D66">
-        <v>-0.1109868953506636</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1294279234762987</v>
+      </c>
+      <c r="E66">
+        <v>-0.01368985738348595</v>
+      </c>
+      <c r="F66">
+        <v>-0.01101565745166789</v>
+      </c>
+      <c r="G66">
+        <v>-0.0146891511233424</v>
+      </c>
+      <c r="H66">
+        <v>-0.05571484799137091</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04228411416907397</v>
+        <v>0.03610827835687772</v>
       </c>
       <c r="C67">
-        <v>-0.02192865900207535</v>
+        <v>-0.02642638831773621</v>
       </c>
       <c r="D67">
-        <v>-0.02027218024249107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01767098525600911</v>
+      </c>
+      <c r="E67">
+        <v>-0.01615787869684135</v>
+      </c>
+      <c r="F67">
+        <v>-0.0007482062394466027</v>
+      </c>
+      <c r="G67">
+        <v>-0.0348061157336705</v>
+      </c>
+      <c r="H67">
+        <v>-0.03722880264351507</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1595603012730635</v>
+        <v>0.1962686159763312</v>
       </c>
       <c r="C68">
-        <v>0.2465838534277244</v>
+        <v>0.1987364897404915</v>
       </c>
       <c r="D68">
-        <v>0.01938229987015259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01180280044531539</v>
+      </c>
+      <c r="E68">
+        <v>-0.05444421927494621</v>
+      </c>
+      <c r="F68">
+        <v>0.02811196471385743</v>
+      </c>
+      <c r="G68">
+        <v>-0.01102321211868659</v>
+      </c>
+      <c r="H68">
+        <v>0.004634515940032571</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08719667793209245</v>
+        <v>0.0747718695326049</v>
       </c>
       <c r="C69">
-        <v>-0.08253638961951452</v>
+        <v>-0.09666320791054757</v>
       </c>
       <c r="D69">
-        <v>-0.05968206151044081</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04524680884845345</v>
+      </c>
+      <c r="E69">
+        <v>-0.02531198367810679</v>
+      </c>
+      <c r="F69">
+        <v>0.004560805185219651</v>
+      </c>
+      <c r="G69">
+        <v>0.03289901500766056</v>
+      </c>
+      <c r="H69">
+        <v>-0.03644232409284371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1388174784854763</v>
+        <v>0.1822496056252867</v>
       </c>
       <c r="C71">
-        <v>0.242067015807682</v>
+        <v>0.210481780178685</v>
       </c>
       <c r="D71">
-        <v>-0.01857492734105418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03545917124552846</v>
+      </c>
+      <c r="E71">
+        <v>-0.0542625826544702</v>
+      </c>
+      <c r="F71">
+        <v>0.03226388217521278</v>
+      </c>
+      <c r="G71">
+        <v>0.01810272540730271</v>
+      </c>
+      <c r="H71">
+        <v>-0.02421074602966606</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09800154600414815</v>
+        <v>0.09789477020326079</v>
       </c>
       <c r="C72">
-        <v>-0.03904307698093518</v>
+        <v>-0.06944987708816013</v>
       </c>
       <c r="D72">
-        <v>-0.0878119118153229</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09365502204919064</v>
+      </c>
+      <c r="E72">
+        <v>0.03543809988799164</v>
+      </c>
+      <c r="F72">
+        <v>0.03736271762444274</v>
+      </c>
+      <c r="G72">
+        <v>0.03349361803380051</v>
+      </c>
+      <c r="H72">
+        <v>-0.03840059420696616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2731769159694822</v>
+        <v>0.2449872138099287</v>
       </c>
       <c r="C73">
-        <v>-5.62703822025873e-05</v>
+        <v>-0.08390349740165774</v>
       </c>
       <c r="D73">
-        <v>-0.2826852010895942</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1812995482713358</v>
+      </c>
+      <c r="E73">
+        <v>0.6664279261838001</v>
+      </c>
+      <c r="F73">
+        <v>0.02144464065005696</v>
+      </c>
+      <c r="G73">
+        <v>0.01239985079422325</v>
+      </c>
+      <c r="H73">
+        <v>0.1500827204379734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1076805673715286</v>
+        <v>0.09844892601785772</v>
       </c>
       <c r="C74">
-        <v>-0.07476195585496806</v>
+        <v>-0.09135836286085598</v>
       </c>
       <c r="D74">
-        <v>-0.01451581752913367</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.004183015864813023</v>
+      </c>
+      <c r="E74">
+        <v>-0.07850501914196009</v>
+      </c>
+      <c r="F74">
+        <v>0.05790493089007699</v>
+      </c>
+      <c r="G74">
+        <v>0.06262782193357794</v>
+      </c>
+      <c r="H74">
+        <v>0.02772151690930409</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2502615702397295</v>
+        <v>0.2279558616474189</v>
       </c>
       <c r="C75">
-        <v>-0.1221319868354346</v>
+        <v>-0.1673168852065487</v>
       </c>
       <c r="D75">
-        <v>0.0665409226540694</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09356398424071784</v>
+      </c>
+      <c r="E75">
+        <v>-0.1032962128627193</v>
+      </c>
+      <c r="F75">
+        <v>0.005375239819658941</v>
+      </c>
+      <c r="G75">
+        <v>0.05396910489487896</v>
+      </c>
+      <c r="H75">
+        <v>0.1060679583329085</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.143509764250248</v>
+        <v>0.1272139574571428</v>
       </c>
       <c r="C76">
-        <v>-0.08827578258250829</v>
+        <v>-0.1144546162517831</v>
       </c>
       <c r="D76">
-        <v>-0.001072904160528167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01261041090766508</v>
+      </c>
+      <c r="E76">
+        <v>-0.1170848693118212</v>
+      </c>
+      <c r="F76">
+        <v>0.02091837806806078</v>
+      </c>
+      <c r="G76">
+        <v>0.04585732756190489</v>
+      </c>
+      <c r="H76">
+        <v>-0.007732812257833102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06594099877156907</v>
+        <v>0.06041724949383072</v>
       </c>
       <c r="C77">
-        <v>-0.05804486750813632</v>
+        <v>-0.07182675812320549</v>
       </c>
       <c r="D77">
-        <v>-0.04129951861518216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1274144416027423</v>
+      </c>
+      <c r="E77">
+        <v>-0.2096268256545892</v>
+      </c>
+      <c r="F77">
+        <v>-0.2502374879527661</v>
+      </c>
+      <c r="G77">
+        <v>-0.2220880957500767</v>
+      </c>
+      <c r="H77">
+        <v>0.3631041306933591</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04359075721616819</v>
+        <v>0.04188006914180899</v>
       </c>
       <c r="C78">
-        <v>-0.05178664656581037</v>
+        <v>-0.0667212017455079</v>
       </c>
       <c r="D78">
-        <v>-0.1154687126404163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1301141688345818</v>
+      </c>
+      <c r="E78">
+        <v>-0.01547793812674518</v>
+      </c>
+      <c r="F78">
+        <v>0.008295161567037716</v>
+      </c>
+      <c r="G78">
+        <v>0.01506011952595859</v>
+      </c>
+      <c r="H78">
+        <v>-0.02590425113862533</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.007060730303689215</v>
+        <v>0.04449773590678874</v>
       </c>
       <c r="C79">
-        <v>-0.05926141085336139</v>
+        <v>-0.09111562187688986</v>
       </c>
       <c r="D79">
-        <v>-0.006750844321014263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0252286140256282</v>
+      </c>
+      <c r="E79">
+        <v>-0.191984969558086</v>
+      </c>
+      <c r="F79">
+        <v>0.124814790371789</v>
+      </c>
+      <c r="G79">
+        <v>0.7193475413143984</v>
+      </c>
+      <c r="H79">
+        <v>0.3699199501642045</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03424884620330933</v>
+        <v>0.0260885753908323</v>
       </c>
       <c r="C80">
-        <v>-0.02887642661490481</v>
+        <v>-0.04408199244738066</v>
       </c>
       <c r="D80">
-        <v>-0.02692975787099818</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03362088654148226</v>
+      </c>
+      <c r="E80">
+        <v>-0.02127993955392457</v>
+      </c>
+      <c r="F80">
+        <v>-0.0330791444422781</v>
+      </c>
+      <c r="G80">
+        <v>-0.04902061740122801</v>
+      </c>
+      <c r="H80">
+        <v>-0.01808147171625511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1440433415322811</v>
+        <v>0.1270780515357501</v>
       </c>
       <c r="C81">
-        <v>-0.09123109509343316</v>
+        <v>-0.1174118694009916</v>
       </c>
       <c r="D81">
-        <v>0.04811914943737893</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06500948127174927</v>
+      </c>
+      <c r="E81">
+        <v>-0.1183605052500444</v>
+      </c>
+      <c r="F81">
+        <v>0.02235157664017514</v>
+      </c>
+      <c r="G81">
+        <v>0.0483495723938937</v>
+      </c>
+      <c r="H81">
+        <v>0.01164172974717574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3078716234290542</v>
+        <v>0.253513117940858</v>
       </c>
       <c r="C82">
-        <v>-0.2636928827366354</v>
+        <v>-0.2640124050266995</v>
       </c>
       <c r="D82">
-        <v>0.2275565157797215</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2276327395558735</v>
+      </c>
+      <c r="E82">
+        <v>0.01790855368022468</v>
+      </c>
+      <c r="F82">
+        <v>0.04490975865071407</v>
+      </c>
+      <c r="G82">
+        <v>0.08186609702998894</v>
+      </c>
+      <c r="H82">
+        <v>-0.4327703123569137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03309903534919092</v>
+        <v>0.02293281990796832</v>
       </c>
       <c r="C83">
-        <v>-0.04602194788769945</v>
+        <v>-0.05312698321009885</v>
       </c>
       <c r="D83">
-        <v>-0.04670460554400388</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05192614753297213</v>
+      </c>
+      <c r="E83">
+        <v>-0.01376822472906993</v>
+      </c>
+      <c r="F83">
+        <v>-0.02388602489381534</v>
+      </c>
+      <c r="G83">
+        <v>-0.0174412973032019</v>
+      </c>
+      <c r="H83">
+        <v>-0.02234842854378235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001992808486512302</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004850207286878695</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01707028650333875</v>
+      </c>
+      <c r="E84">
+        <v>-0.01584438664213639</v>
+      </c>
+      <c r="F84">
+        <v>0.007890754705955599</v>
+      </c>
+      <c r="G84">
+        <v>-0.007194653772193683</v>
+      </c>
+      <c r="H84">
+        <v>-0.002430343742159188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1820852880901922</v>
+        <v>0.1576650877211963</v>
       </c>
       <c r="C85">
-        <v>-0.09561248940715221</v>
+        <v>-0.1337760760296186</v>
       </c>
       <c r="D85">
-        <v>0.03695628987062329</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.06758489234848226</v>
+      </c>
+      <c r="E85">
+        <v>-0.0486401723176623</v>
+      </c>
+      <c r="F85">
+        <v>0.03560003707944127</v>
+      </c>
+      <c r="G85">
+        <v>0.09202253759292202</v>
+      </c>
+      <c r="H85">
+        <v>0.08474215828174228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01803278320149486</v>
+        <v>0.01940022649637586</v>
       </c>
       <c r="C86">
-        <v>-0.02089401701368461</v>
+        <v>-0.02185389639620909</v>
       </c>
       <c r="D86">
-        <v>-0.1414087585364622</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1281461413018598</v>
+      </c>
+      <c r="E86">
+        <v>-0.01067143285760415</v>
+      </c>
+      <c r="F86">
+        <v>-0.01628252207537965</v>
+      </c>
+      <c r="G86">
+        <v>-0.002081233399563345</v>
+      </c>
+      <c r="H86">
+        <v>-0.05946684147035484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02940339498270145</v>
+        <v>0.03345851074742012</v>
       </c>
       <c r="C87">
-        <v>-0.003332570184068882</v>
+        <v>-0.02488569270191724</v>
       </c>
       <c r="D87">
-        <v>-0.09796385081508201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1337045015761141</v>
+      </c>
+      <c r="E87">
+        <v>-0.08396472526308195</v>
+      </c>
+      <c r="F87">
+        <v>-0.01202518195228</v>
+      </c>
+      <c r="G87">
+        <v>-0.01800050381699764</v>
+      </c>
+      <c r="H87">
+        <v>-0.03347710464031217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07723604681754551</v>
+        <v>0.06820019159129548</v>
       </c>
       <c r="C88">
-        <v>-0.03721727165554168</v>
+        <v>-0.05702697955197001</v>
       </c>
       <c r="D88">
-        <v>-0.03219677531391604</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01545339098408446</v>
+      </c>
+      <c r="E88">
+        <v>-0.01847967025925162</v>
+      </c>
+      <c r="F88">
+        <v>0.005324042003801663</v>
+      </c>
+      <c r="G88">
+        <v>0.002231067737176784</v>
+      </c>
+      <c r="H88">
+        <v>-0.04214128642475239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2005636647190336</v>
+        <v>0.279116927902273</v>
       </c>
       <c r="C89">
-        <v>0.3814363324623582</v>
+        <v>0.3557868415799053</v>
       </c>
       <c r="D89">
-        <v>0.03246612998589705</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.003706231660344838</v>
+      </c>
+      <c r="E89">
+        <v>-0.05012584417175529</v>
+      </c>
+      <c r="F89">
+        <v>-0.0492141437224975</v>
+      </c>
+      <c r="G89">
+        <v>0.0459981677517179</v>
+      </c>
+      <c r="H89">
+        <v>-0.08726422226841234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1966060747525858</v>
+        <v>0.2417531773319387</v>
       </c>
       <c r="C90">
-        <v>0.2970001886625939</v>
+        <v>0.254026456060721</v>
       </c>
       <c r="D90">
-        <v>0.02970955344430285</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01275016465354282</v>
+      </c>
+      <c r="E90">
+        <v>-0.04385529536561436</v>
+      </c>
+      <c r="F90">
+        <v>0.01303006668758893</v>
+      </c>
+      <c r="G90">
+        <v>-0.05042995086105603</v>
+      </c>
+      <c r="H90">
+        <v>-0.04093061868073913</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1850024875848866</v>
+        <v>0.1603196731562365</v>
       </c>
       <c r="C91">
-        <v>-0.1385788850575435</v>
+        <v>-0.1584697351143396</v>
       </c>
       <c r="D91">
-        <v>0.06009140124460426</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08260826931798743</v>
+      </c>
+      <c r="E91">
+        <v>-0.1094377467099212</v>
+      </c>
+      <c r="F91">
+        <v>0.02590165834927082</v>
+      </c>
+      <c r="G91">
+        <v>0.09215230680273255</v>
+      </c>
+      <c r="H91">
+        <v>0.08629708117042757</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1677640500436737</v>
+        <v>0.2220344330144295</v>
       </c>
       <c r="C92">
-        <v>0.2917700825636266</v>
+        <v>0.2702717544223341</v>
       </c>
       <c r="D92">
-        <v>-0.006761741008938048</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02771607900272708</v>
+      </c>
+      <c r="E92">
+        <v>-0.08932361389179094</v>
+      </c>
+      <c r="F92">
+        <v>-0.01588305228753712</v>
+      </c>
+      <c r="G92">
+        <v>-0.01021775792778679</v>
+      </c>
+      <c r="H92">
+        <v>-0.03752408171333869</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2240588592109257</v>
+        <v>0.2677232357304185</v>
       </c>
       <c r="C93">
-        <v>0.3227964396097047</v>
+        <v>0.2679895945229389</v>
       </c>
       <c r="D93">
-        <v>0.003388078825598049</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.003868655052591154</v>
+      </c>
+      <c r="E93">
+        <v>-0.01687609767400145</v>
+      </c>
+      <c r="F93">
+        <v>0.02428935409285137</v>
+      </c>
+      <c r="G93">
+        <v>0.00214182244728747</v>
+      </c>
+      <c r="H93">
+        <v>0.006097844500052864</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3959869450105306</v>
+        <v>0.3378879877908528</v>
       </c>
       <c r="C94">
-        <v>-0.21027683897738</v>
+        <v>-0.266463201187181</v>
       </c>
       <c r="D94">
-        <v>0.4647695401710946</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4325070549185928</v>
+      </c>
+      <c r="E94">
+        <v>-0.08903302136004611</v>
+      </c>
+      <c r="F94">
+        <v>-0.01935515200713154</v>
+      </c>
+      <c r="G94">
+        <v>-0.4844468518897848</v>
+      </c>
+      <c r="H94">
+        <v>0.1570904257662783</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07380318850675764</v>
+        <v>0.06512459373114113</v>
       </c>
       <c r="C95">
-        <v>-0.06962633274872582</v>
+        <v>-0.06627125702206088</v>
       </c>
       <c r="D95">
-        <v>-0.1078661406129102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07935164326854974</v>
+      </c>
+      <c r="E95">
+        <v>-0.0006280145733431811</v>
+      </c>
+      <c r="F95">
+        <v>-0.9175982282687692</v>
+      </c>
+      <c r="G95">
+        <v>0.134798089549768</v>
+      </c>
+      <c r="H95">
+        <v>0.007484882798602526</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1740700263578151</v>
+        <v>0.16207055898726</v>
       </c>
       <c r="C98">
-        <v>-0.0176675122532109</v>
+        <v>-0.06569634674641785</v>
       </c>
       <c r="D98">
-        <v>-0.1626754329555908</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1350352108354356</v>
+      </c>
+      <c r="E98">
+        <v>0.3166814220564228</v>
+      </c>
+      <c r="F98">
+        <v>0.05077747332623204</v>
+      </c>
+      <c r="G98">
+        <v>0.04740287300661528</v>
+      </c>
+      <c r="H98">
+        <v>0.04998113498406447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007127700146011725</v>
+        <v>0.006519470171060092</v>
       </c>
       <c r="C101">
-        <v>-0.01777332035121565</v>
+        <v>-0.02270142190675263</v>
       </c>
       <c r="D101">
-        <v>-0.0641293021652586</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07953298284781309</v>
+      </c>
+      <c r="E101">
+        <v>-0.03408124471017312</v>
+      </c>
+      <c r="F101">
+        <v>0.004018731898210497</v>
+      </c>
+      <c r="G101">
+        <v>0.006889569022387779</v>
+      </c>
+      <c r="H101">
+        <v>-0.1109022951422213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1286210155823797</v>
+        <v>0.1068832406347379</v>
       </c>
       <c r="C102">
-        <v>-0.1144147409418285</v>
+        <v>-0.1183906287017353</v>
       </c>
       <c r="D102">
-        <v>0.03747815549548447</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0555490464349794</v>
+      </c>
+      <c r="E102">
+        <v>-0.03211609542062851</v>
+      </c>
+      <c r="F102">
+        <v>-0.02270816888394674</v>
+      </c>
+      <c r="G102">
+        <v>0.03479659701319788</v>
+      </c>
+      <c r="H102">
+        <v>-0.03059521433113791</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
